--- a/data/account_metrics.xlsx
+++ b/data/account_metrics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F242"/>
+  <dimension ref="A1:F322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7819,6 +7819,2452 @@
         </is>
       </c>
     </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>position_file</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>pos20250529_v3.csv</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>调仓文件</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:04:41</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:06:38</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2025-05-29_1504:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>before_trade_balance</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>48.04205943</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>调仓前账户总保证金余额(totalMarginBalance)</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:04:41</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:06:38</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2025-05-29_1504:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>before_available_balance</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>12.44484729</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>调仓前可用保证金余额(available_balance)</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:04:41</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:06:38</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2025-05-29_1504:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>after_trade_balance</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>48.06005427</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>调仓后账户总保证金余额(totalMarginBalance)</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:06:38</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>2025-05-29_1504:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>balance_loss</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>-0.01799484000000007</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>调仓前后账户余额变化</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:06:38</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2025-05-29_1504:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>balance_loss_rate</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>-0.037456%</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>调仓前后账户余额变化率(%)</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:06:38</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>2025-05-29_1504:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>after_available_balance</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>6.08346489</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>调仓后可用保证金余额(available_balance)</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:06:38</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>2025-05-29_1504:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>btc_usdt_price</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>107793.8</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>当前 BTC/USDT 价格: 107793.8</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:06:38</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>2025-05-29_1504:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>trade_commission_summary_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易手续费总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:06:38</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>2025-05-29_1504:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>trade_commission_summary_ratio_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>0</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易手续费总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:06:38</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>2025-05-29_1504:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>trade_realized_pnl_summary_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>0</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易已实现盈亏总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:06:38</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>2025-05-29_1504:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>trade_realized_pnl_summary_ratio_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>0</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易已实现盈亏总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:06:38</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>2025-05-29_1504:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>pre_rebalance_return</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>0.000000%</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>调仓前回报率: 无历史数据</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:06:38</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>2025-05-29_1504:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>post_rebalance_return</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>0.000000%</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>调仓后回报率: 无历史数据</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:06:38</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>2025-05-29_1504:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>position_file</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>pos20250529_v3.csv</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>调仓文件</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:07:39</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:08:47</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>2025-05-29_1507:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>before_trade_balance</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>48.03734973</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>调仓前账户总保证金余额(totalMarginBalance)</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:07:39</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:08:47</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>2025-05-29_1507:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>before_available_balance</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>6.06452259</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>调仓前可用保证金余额(available_balance)</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:07:39</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:08:47</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>2025-05-29_1507:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>after_trade_balance</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>48.06005427</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>调仓后账户总保证金余额(totalMarginBalance)</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:08:47</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>2025-05-29_1507:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>balance_loss</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>-0.02270453999999944</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>调仓前后账户余额变化</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:08:47</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:08:47</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>2025-05-29_1507:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>balance_loss_rate</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>-0.047264%</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>调仓前后账户余额变化率(%)</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:08:47</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:08:47</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>2025-05-29_1507:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>after_available_balance</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>6.08346489</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>调仓后可用保证金余额(available_balance)</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:08:47</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>2025-05-29_1507:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>btc_usdt_price</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>107793.8</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>当前 BTC/USDT 价格: 107793.8</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:08:47</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>2025-05-29_1507:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>trade_commission_summary_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>0</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易手续费总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:08:47</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>2025-05-29_1507:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>trade_commission_summary_ratio_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>0</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易手续费总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:08:47</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>2025-05-29_1507:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>trade_realized_pnl_summary_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>0</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易已实现盈亏总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:08:47</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>2025-05-29_1507:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>trade_realized_pnl_summary_ratio_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>0</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易已实现盈亏总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:08:47</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>2025-05-29_1507:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>pre_rebalance_return</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>0.000000%</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>调仓前回报率: 无历史数据</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:08:47</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:08:47</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>2025-05-29_1507:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>post_rebalance_return</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>0.000000%</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>调仓后回报率: 无历史数据</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:08:47</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:08:47</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>2025-05-29_1507:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>position_file</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>pos20250529_v3.csv</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>调仓文件</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:09:48</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:10:53</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>2025-05-29_1509:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>before_trade_balance</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>48.06883907</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>调仓前账户总保证金余额(totalMarginBalance)</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:09:48</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:10:53</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>2025-05-29_1509:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>before_available_balance</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>6.146924</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>调仓前可用保证金余额(available_balance)</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:09:48</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:10:53</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>2025-05-29_1509:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>after_trade_balance</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>48.06005427</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>调仓后账户总保证金余额(totalMarginBalance)</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:10:53</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>2025-05-29_1509:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>balance_loss</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>0.008784800000000814</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>调仓前后账户余额变化</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:10:53</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:10:53</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>2025-05-29_1509:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>balance_loss_rate</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>0.018275%</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>调仓前后账户余额变化率(%)</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:10:53</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:10:53</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>2025-05-29_1509:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>after_available_balance</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>6.08346489</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>调仓后可用保证金余额(available_balance)</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:10:53</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>2025-05-29_1509:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>btc_usdt_price</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>107793.8</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>当前 BTC/USDT 价格: 107793.8</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:10:53</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>2025-05-29_1509:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>trade_commission_summary_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>0</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易手续费总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:10:53</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>2025-05-29_1509:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>trade_commission_summary_ratio_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>0</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易手续费总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:10:53</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>2025-05-29_1509:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>trade_realized_pnl_summary_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>0</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易已实现盈亏总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:10:53</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>2025-05-29_1509:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>trade_realized_pnl_summary_ratio_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>0</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易已实现盈亏总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:10:53</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>2025-05-29_1509:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>pre_rebalance_return</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>0.000000%</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>调仓前回报率: 无历史数据</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:10:52</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:10:53</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>2025-05-29_1509:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>post_rebalance_return</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>0.000000%</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>调仓后回报率: 无历史数据</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:10:52</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:10:53</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>2025-05-29_1509:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>position_file</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>pos20250529_v3.csv</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>调仓文件</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:11:53</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:13:07</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>2025-05-29_1511:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>before_trade_balance</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>48.03375522</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>调仓前账户总保证金余额(totalMarginBalance)</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:11:53</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:13:07</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>2025-05-29_1511:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>before_available_balance</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>6.01584109</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>调仓前可用保证金余额(available_balance)</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:11:53</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:13:07</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>2025-05-29_1511:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>after_trade_balance</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>48.06005427</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>调仓后账户总保证金余额(totalMarginBalance)</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:13:07</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>2025-05-29_1511:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>balance_loss</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>-0.02629904999999866</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>调仓前后账户余额变化</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:13:07</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:13:07</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>2025-05-29_1511:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>balance_loss_rate</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>-0.054751%</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>调仓前后账户余额变化率(%)</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:13:07</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:13:07</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>2025-05-29_1511:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>after_available_balance</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>6.08346489</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>调仓后可用保证金余额(available_balance)</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:13:07</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>2025-05-29_1511:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>btc_usdt_price</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>107793.8</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>当前 BTC/USDT 价格: 107793.8</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:13:07</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>2025-05-29_1511:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>trade_commission_summary_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>0</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易手续费总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:13:07</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>2025-05-29_1511:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>trade_commission_summary_ratio_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>0</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易手续费总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:13:07</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>2025-05-29_1511:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>trade_realized_pnl_summary_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>0</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易已实现盈亏总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:13:07</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>2025-05-29_1511:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>trade_realized_pnl_summary_ratio_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>0</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易已实现盈亏总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:06:38</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:13:07</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>2025-05-29_1511:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>pre_rebalance_return</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>0.000000%</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>调仓前回报率: 无历史数据</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:13:07</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:13:07</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>2025-05-29_1511:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>post_rebalance_return</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>0.000000%</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>调仓后回报率: 无历史数据</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:13:07</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:13:07</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>2025-05-29_1511:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>position_file</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>pos20250529_v3.csv</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>调仓文件</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:32:16</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:32:16</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>2025-05-29_1532:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>after_trade_balance</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>48.07111186</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>调仓后账户总保证金余额(totalMarginBalance)</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:32:16</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:32:16</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>2025-05-29_1532:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>after_available_balance</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>6.01014839</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>调仓后可用保证金余额(available_balance)</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:32:16</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:32:16</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>2025-05-29_1532:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>btc_usdt_price</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>107899.7</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>当前 BTC/USDT 价格: 107899.7</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:32:16</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:32:16</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>2025-05-29_1532:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>trade_commission_summary_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>0</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易手续费总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:32:16</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:32:16</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>2025-05-29_1532:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>trade_commission_summary_ratio_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>0</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易手续费总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:32:16</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:32:16</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>2025-05-29_1532:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>trade_realized_pnl_summary_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>0</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易已实现盈亏总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:32:16</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:32:16</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>2025-05-29_1532:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>trade_realized_pnl_summary_ratio_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>0</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易已实现盈亏总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:32:16</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:32:16</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>2025-05-29_1532:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>pre_rebalance_return</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>0.000000%</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>调仓前回报率: 首次运行或缺少历史数据</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:32:16</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:32:16</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>2025-05-29_1532:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>post_rebalance_return</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>0.000000%</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>调仓后回报率: 首次运行或缺少历史数据</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:32:16</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:32:16</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>2025-05-29_1532:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>position_file</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>pos20250529_v3.csv</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>调仓文件</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:34:23</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:35:38</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>2025-05-29_1534:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>before_trade_balance</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>48.07547531</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>调仓前账户总保证金余额(totalMarginBalance)</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:34:23</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:35:38</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>2025-05-29_1534:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>before_available_balance</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>6.02660723</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>调仓前可用保证金余额(available_balance)</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:34:23</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:35:38</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>2025-05-29_1534:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>after_trade_balance</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>48.09420452</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>调仓后账户总保证金余额(totalMarginBalance)</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:35:37</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:35:38</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>2025-05-29_1534:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>balance_loss</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>-0.0187292099999965</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>调仓前后账户余额变化</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:35:37</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:35:38</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>2025-05-29_1534:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>balance_loss_rate</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>-0.038958%</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>调仓前后账户余额变化率(%)</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:35:37</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:35:38</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>2025-05-29_1534:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>after_available_balance</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>6.06127239</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>调仓后可用保证金余额(available_balance)</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:35:37</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:35:38</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2025-05-29_1534:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>btc_usdt_price</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>107879.5</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>当前 BTC/USDT 价格: 107879.5</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:35:38</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:35:38</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>2025-05-29_1534:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>trade_commission_summary_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>0</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易手续费总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:35:38</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:35:38</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>2025-05-29_1534:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>trade_commission_summary_ratio_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>0</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易手续费总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:35:38</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:35:38</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>2025-05-29_1534:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>trade_realized_pnl_summary_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>0</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易已实现盈亏总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:35:38</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:35:38</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>2025-05-29_1534:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>trade_realized_pnl_summary_ratio_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>0</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易已实现盈亏总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:35:38</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:35:38</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>2025-05-29_1534:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>pre_rebalance_return</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>0.000000%</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>调仓前回报率: 无历史数据</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:35:37</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:35:38</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>2025-05-29_1534:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>post_rebalance_return</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>0.000000%</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>调仓后回报率: 无历史数据</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:35:37</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:35:38</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>2025-05-29_1534:23</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/account_metrics.xlsx
+++ b/data/account_metrics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F322"/>
+  <dimension ref="A1:F392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3554,7 +3554,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.07585861000000449</v>
+        <v>0.0758586100000045</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.004672800000001587</v>
+        <v>0.00467280000000159</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.1686163700000023</v>
+        <v>0.168616370000002</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.05362490000000264</v>
+        <v>0.0536249000000026</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-0.03852917000000389</v>
+        <v>-0.0385291700000039</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.006902340000003448</v>
+        <v>0.00690234000000345</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.3270669600000033</v>
+        <v>0.327066960000003</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.1318075900000001</v>
+        <v>0.13180759</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>-0.01799484000000007</v>
+        <v>-0.0179948400000001</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -8376,7 +8376,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>-0.02270453999999944</v>
+        <v>-0.0227045399999994</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.008784800000000814</v>
+        <v>0.008784800000000811</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>-0.02629904999999866</v>
+        <v>-0.0262990499999987</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -10262,6 +10262,2146 @@
       <c r="F322" t="inlineStr">
         <is>
           <t>2025-05-29_1534:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>position_file</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>pos20250529_v3.csv</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>调仓文件</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:57:31</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:58:54</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>2025-05-29_1557:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>before_trade_balance</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>48.08483919</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>调仓前账户总保证金余额(totalMarginBalance)</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:57:31</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:58:54</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2025-05-29_1557:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>before_available_balance</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>6.07186455</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>调仓前可用保证金余额(available_balance)</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:57:31</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:58:54</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>2025-05-29_1557:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>after_trade_balance</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>48.08204688</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>调仓后账户总保证金余额(totalMarginBalance)</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:58:54</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:58:54</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>2025-05-29_1557:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>balance_loss</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>0.00279230999999669</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>调仓前后账户余额变化</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:58:54</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:58:54</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>2025-05-29_1557:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>balance_loss_rate</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>0.005807%</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>调仓前后账户余额变化率(%)</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:58:54</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:58:54</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>2025-05-29_1557:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>after_available_balance</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>6.13475375</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>调仓后可用保证金余额(available_balance)</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:58:54</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:58:54</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>2025-05-29_1557:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>btc_usdt_price</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>107794.3</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>当前 BTC/USDT 价格: 107794.3</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:58:54</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:58:54</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>2025-05-29_1557:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>trade_commission_summary_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>0</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易手续费总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:58:54</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:58:54</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>2025-05-29_1557:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>trade_commission_summary_ratio_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>0</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易手续费总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:58:54</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:58:54</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>2025-05-29_1557:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>trade_realized_pnl_summary_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>0</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易已实现盈亏总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:58:54</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:58:54</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2025-05-29_1557:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>trade_realized_pnl_summary_ratio_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>0</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易已实现盈亏总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:58:54</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:58:54</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>2025-05-29_1557:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>pre_rebalance_return</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>0.000000%</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>调仓前回报率: 无历史数据</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:58:54</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:58:54</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>2025-05-29_1557:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>post_rebalance_return</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>0.000000%</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>调仓后回报率: 无历史数据</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2025-05-29_15:58:54</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:58:54</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>2025-05-29_1557:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>position_file</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>pos20250529_v3.csv</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>调仓文件</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2025-05-29_16:00:10</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:01:27</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>2025-05-29_160010</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>before_trade_balance</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>48.05981315</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>调仓前账户总保证金余额(totalMarginBalance)</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2025-05-29_16:00:11</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:01:27</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>2025-05-29_160010</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>before_available_balance</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>6.11378348</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>调仓前可用保证金余额(available_balance)</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2025-05-29_16:00:11</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:01:27</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>2025-05-29_160010</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>after_trade_balance</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>48.08709914</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>调仓后账户总保证金余额(totalMarginBalance)</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2025-05-29_16:01:26</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:01:27</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>2025-05-29_160010</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>balance_loss</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>-0.0272859900000029</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>调仓前后账户余额变化</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2025-05-29_16:01:26</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:01:27</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>2025-05-29_160010</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>balance_loss_rate</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>-0.056775%</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>调仓前后账户余额变化率(%)</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2025-05-29_16:01:26</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:01:27</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>2025-05-29_160010</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>after_available_balance</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>6.14708992</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>调仓后可用保证金余额(available_balance)</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>2025-05-29_16:01:26</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:01:27</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2025-05-29_160010</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>btc_usdt_price</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>107830.1</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>当前 BTC/USDT 价格: 107830.1</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>2025-05-29_16:01:27</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:01:27</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>2025-05-29_160010</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>trade_commission_summary_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>0</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易手续费总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>2025-05-29_16:01:27</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:01:27</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>2025-05-29_160010</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>trade_commission_summary_ratio_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>0</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易手续费总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>2025-05-29_16:01:27</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:01:27</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>2025-05-29_160010</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>trade_realized_pnl_summary_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>0</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易已实现盈亏总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>2025-05-29_16:01:27</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:01:27</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>2025-05-29_160010</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>trade_realized_pnl_summary_ratio_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>0</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易已实现盈亏总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>2025-05-29_16:01:27</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:01:27</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>2025-05-29_160010</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>pre_rebalance_return</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>0.000000%</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>调仓前回报率: 无历史数据</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2025-05-29_16:01:26</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:01:27</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>2025-05-29_160010</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>post_rebalance_return</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>0.000000%</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>调仓后回报率: 无历史数据</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>2025-05-29_16:01:26</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:01:27</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>2025-05-29_160010</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>position_file</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>pos20250529_v3.csv</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>调仓文件</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:36:42</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:37:45</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>2025-05-29_173642</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>before_trade_balance</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>47.91525752</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>调仓前账户总保证金余额(totalMarginBalance)</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:36:42</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:37:45</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>2025-05-29_173642</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>before_available_balance</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>5.86791874</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>调仓前可用保证金余额(available_balance)</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:36:42</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:37:45</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>2025-05-29_173642</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>after_trade_balance</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>47.90954908</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>调仓后账户总保证金余额(totalMarginBalance)</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:37:45</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:37:45</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>2025-05-29_173642</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>balance_loss</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>0.005708439999999371</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>调仓前后账户余额变化</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:37:45</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:37:45</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>2025-05-29_173642</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>balance_loss_rate</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>0.011914%</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>调仓前后账户余额变化率(%)</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:37:45</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:37:45</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>2025-05-29_173642</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>after_available_balance</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>5.93480259</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>调仓后可用保证金余额(available_balance)</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:37:45</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:37:45</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>2025-05-29_173642</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>btc_usdt_price</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>108450</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>当前 BTC/USDT 价格: 108450.0</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:37:45</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:37:45</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>2025-05-29_173642</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>trade_commission_summary_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>0</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易手续费总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:37:45</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:37:45</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>2025-05-29_173642</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>trade_commission_summary_ratio_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>0</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易手续费总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:37:45</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:37:45</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>2025-05-29_173642</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>trade_realized_pnl_summary_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>0</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易已实现盈亏总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:37:45</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:37:45</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>2025-05-29_173642</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>trade_realized_pnl_summary_ratio_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>0</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易已实现盈亏总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:37:45</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:37:45</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>2025-05-29_173642</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>pre_rebalance_return</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>0.000000%</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>调仓前回报率: 计算失败 (Unknown datetime string format, unable to parse: 2025-05-29_17:37:45, at position 0)</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:37:45</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:37:45</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>2025-05-29_173642</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>post_rebalance_return</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>0.000000%</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>调仓后回报率: 计算失败 (Unknown datetime string format, unable to parse: 2025-05-29_17:37:45, at position 0)</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:37:45</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:37:45</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>2025-05-29_173642</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>position_file</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>pos20250529_v3.csv</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>调仓文件</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:41:24</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:42:13</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>2025-05-29_174123</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>before_trade_balance</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>47.91642744</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>调仓前账户总保证金余额(totalMarginBalance)</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:41:25</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:42:13</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>2025-05-29_174123</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>before_available_balance</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>5.95688974</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>调仓前可用保证金余额(available_balance)</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:41:25</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:42:13</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>2025-05-29_174123</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>after_trade_balance</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>47.87720679</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>调仓后账户总保证金余额(totalMarginBalance)</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:42:13</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:42:13</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>2025-05-29_174123</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>balance_loss</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>0.03922064999999719</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>调仓前后账户余额变化</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:42:13</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:42:13</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>2025-05-29_174123</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>balance_loss_rate</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>0.081852%</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>调仓前后账户余额变化率(%)</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:42:13</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:42:13</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>2025-05-29_174123</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>after_available_balance</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>5.90913911</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>调仓后可用保证金余额(available_balance)</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:42:13</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:42:13</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>2025-05-29_174123</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>btc_usdt_price</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>108326</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>当前 BTC/USDT 价格: 108326.0</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:42:13</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:42:13</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>2025-05-29_174123</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>trade_commission_summary_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>0</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易手续费总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:42:13</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:42:13</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>2025-05-29_174123</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>trade_commission_summary_ratio_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>0</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易手续费总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:42:13</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:42:13</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>2025-05-29_174123</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>trade_realized_pnl_summary_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>0</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易已实现盈亏总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:42:13</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:42:13</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>2025-05-29_174123</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>trade_realized_pnl_summary_ratio_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>0</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易已实现盈亏总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:42:13</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:42:13</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>2025-05-29_174123</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>pre_rebalance_return</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>0.000000%</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>调仓前回报率: 计算失败 (Invalid current_record_time: 2025-05-29_17:42:13)</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:42:13</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:42:13</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>2025-05-29_174123</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>post_rebalance_return</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>0.000000%</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>调仓后回报率: 计算失败 (Invalid current_record_time: 2025-05-29_17:42:13)</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:42:13</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:42:13</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>2025-05-29_174123</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>position_file</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>pos20250529_v3.csv</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>调仓文件</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:46:27</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:47:39</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>2025-05-29_174627</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>before_trade_balance</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>47.84358375</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>调仓前账户总保证金余额(totalMarginBalance)</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:46:27</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:47:39</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>2025-05-29_174627</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>before_available_balance</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>5.86450361</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>调仓前可用保证金余额(available_balance)</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:46:27</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:47:39</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>2025-05-29_174627</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>after_trade_balance</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>47.88712668</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>调仓后账户总保证金余额(totalMarginBalance)</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:47:39</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:47:39</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>2025-05-29_174627</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>balance_loss</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>-0.04354293000000098</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>调仓前后账户余额变化</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:47:39</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:47:39</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>2025-05-29_174627</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>balance_loss_rate</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>-0.091011%</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>调仓前后账户余额变化率(%)</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:47:39</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:47:39</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>2025-05-29_174627</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>after_available_balance</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>5.93185249</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>调仓后可用保证金余额(available_balance)</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:47:39</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:47:39</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>2025-05-29_174627</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>btc_usdt_price</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>108345.3</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>当前 BTC/USDT 价格: 108345.3</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:47:39</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:47:39</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>2025-05-29_174627</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>trade_commission_summary_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>0</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易手续费总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:47:39</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:47:39</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>2025-05-29_174627</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>trade_commission_summary_ratio_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>0</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易手续费总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:47:39</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:47:39</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>2025-05-29_174627</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>trade_realized_pnl_summary_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>0</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易已实现盈亏总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:47:39</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:47:39</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>2025-05-29_174627</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>trade_realized_pnl_summary_ratio_2025-05-29</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>0</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>2025-05-29 买卖交易已实现盈亏总和（未计算）</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:47:39</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:47:39</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>2025-05-29_174627</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>pre_rebalance_return</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>-0.070228%</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>调仓前回报率: (47.84358375 - 47.87720679) / 47.87720679 * 100</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:47:38</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:47:39</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>2025-05-29_174627</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>post_rebalance_return</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>0.000000%</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>调仓后回报率: 缺少上一次 after_trade_balance 数据或数据无效</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>2025-05-29_17:47:38</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:47:39</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>2025-05-29_174627</t>
         </is>
       </c>
     </row>

--- a/data/account_metrics.xlsx
+++ b/data/account_metrics.xlsx
@@ -79,7 +79,7 @@
     <t>pos20250603_v3.csv</t>
   </si>
   <si>
-    <t>0.082516%</t>
+    <t>0.001399%</t>
   </si>
   <si>
     <t>0.000000%</t>
@@ -106,7 +106,7 @@
     <t>调仓后可用余额</t>
   </si>
   <si>
-    <t>当前btc_usdt_price:105088.9</t>
+    <t>当前btc_usdt_price:105207.3</t>
   </si>
   <si>
     <t>2025-06-03 买卖交易手续费总和</t>
@@ -127,13 +127,13 @@
     <t>调仓后回报率: 无历史数据</t>
   </si>
   <si>
-    <t>2025-06-03 17:21:24</t>
-  </si>
-  <si>
-    <t>2025-06-03 17:21:25</t>
-  </si>
-  <si>
-    <t>2025-06-03_171718</t>
+    <t>2025-06-03 17:52:33</t>
+  </si>
+  <si>
+    <t>2025-06-03 17:52:34</t>
+  </si>
+  <si>
+    <t>2025-06-03_174520</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>48.25390072</v>
+        <v>48.2373725</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -562,7 +562,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>48.25390072</v>
+        <v>48.2373725</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -582,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>48.21408361</v>
+        <v>48.23669776</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -602,13 +602,13 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03981710999999422</v>
+        <v>0.0006747400000008952</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
         <v>38</v>
@@ -628,7 +628,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
@@ -642,7 +642,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>4.80340456</v>
+        <v>4.87781465</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -662,7 +662,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>105088.9</v>
+        <v>105207.3</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>

--- a/data/account_metrics.xlsx
+++ b/data/account_metrics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pos20250604_v3.csv</t>
+          <t>pos20250605_v3.csv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45812.72358796297</v>
+        <v>45813.68879629629</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-06-04_172118</t>
+          <t>2025-06-05_163030</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.20166009</v>
+        <v>50.17521669</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -515,15 +515,15 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45812.72358796297</v>
+        <v>45813.68879629629</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-04_172118</t>
+          <t>2025-06-05_163030</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.43856716</v>
+        <v>6.25636228</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -543,15 +543,15 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45812.72358796297</v>
+        <v>45813.68879629629</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-04_172118</t>
+          <t>2025-06-05_163030</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.1853699</v>
+        <v>50.14987465</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -571,15 +571,15 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45812.72358796297</v>
+        <v>45813.68879629629</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04_172118</t>
+          <t>2025-06-05_163030</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01629018999999943</v>
+        <v>0.02534203999999818</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -599,15 +599,15 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45812.72358796297</v>
+        <v>45813.68879629629</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-04_172118</t>
+          <t>2025-06-05_163030</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.033796%</t>
+          <t>0.050507%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -629,15 +629,15 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45812.72358796297</v>
+        <v>45813.68879629629</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-04_172118</t>
+          <t>2025-06-05_163030</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.46075859</v>
+        <v>6.19548175</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -657,15 +657,15 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45812.72358796297</v>
+        <v>45813.68879629629</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-04_172118</t>
+          <t>2025-06-05_163030</t>
         </is>
       </c>
     </row>
@@ -676,31 +676,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>105280.4</v>
+        <v>104559.7</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>当前btc_usdt_price:105280.4</t>
+          <t>当前btc_usdt_price:104559.7</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45812.72358796297</v>
+        <v>45813.68879629629</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-04_172118</t>
+          <t>2025-06-05_163030</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>trade_commission_summary_2025-06-04</t>
+          <t>trade_commission_summary_2025-06-05</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -713,22 +713,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45812.72358796297</v>
+        <v>45813.68879629629</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-04_172118</t>
+          <t>2025-06-05_163030</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>trade_commission_summary_ratio_2025-06-04</t>
+          <t>trade_commission_summary_ratio_2025-06-05</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -743,22 +743,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45812.72358796297</v>
+        <v>45813.68879629629</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-04_172118</t>
+          <t>2025-06-05_163030</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>trade_realized_pnl_summary_2025-06-04</t>
+          <t>trade_realized_pnl_summary_2025-06-05</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -771,22 +771,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45812.72358796297</v>
+        <v>45813.68879629629</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-04_172118</t>
+          <t>2025-06-05_163030</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>trade_realized_pnl_summary_ratio_2025-06-04</t>
+          <t>trade_realized_pnl_summary_ratio_2025-06-05</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -801,15 +801,15 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45812.72358796297</v>
+        <v>45813.68879629629</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-04_172118</t>
+          <t>2025-06-05_163030</t>
         </is>
       </c>
     </row>
@@ -831,15 +831,15 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45812.72358796297</v>
+        <v>45813.68879629629</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-04_172118</t>
+          <t>2025-06-05_163030</t>
         </is>
       </c>
     </row>
@@ -861,15 +861,15 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45812.72358796297</v>
+        <v>45813.68879629629</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-04_172118</t>
+          <t>2025-06-05_163030</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pos20250604_v3.csv</t>
+          <t>pos20250605_v3.csv</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -891,15 +891,15 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45812.72472222222</v>
+        <v>45813.69489583333</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-04_172255</t>
+          <t>2025-06-05_163917</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>48.20831758</v>
+        <v>50.1928053</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -919,15 +919,15 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45812.72472222222</v>
+        <v>45813.69489583333</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-04_172255</t>
+          <t>2025-06-05_163917</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.46660295</v>
+        <v>9.57950722</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -947,15 +947,15 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45812.72472222222</v>
+        <v>45813.69489583333</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-04_172255</t>
+          <t>2025-06-05_163917</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.20618892</v>
+        <v>50.11368536</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -975,15 +975,15 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45812.72472222222</v>
+        <v>45813.69489583333</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-04_172255</t>
+          <t>2025-06-05_163917</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.002128659999996785</v>
+        <v>0.07911994000000533</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1003,15 +1003,15 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45812.72472222222</v>
+        <v>45813.69489583333</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-04_172255</t>
+          <t>2025-06-05_163917</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.004416%</t>
+          <t>0.157632%</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1033,15 +1033,15 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45812.72472222222</v>
+        <v>45813.69489583333</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-04_172255</t>
+          <t>2025-06-05_163917</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.48842722</v>
+        <v>6.32100047</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1061,15 +1061,15 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45812.72472222222</v>
+        <v>45813.69489583333</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-06-04_172255</t>
+          <t>2025-06-05_163917</t>
         </is>
       </c>
     </row>
@@ -1080,35 +1080,35 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>105280</v>
+        <v>104542</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>当前btc_usdt_price:105280.0</t>
+          <t>当前btc_usdt_price:104542.0</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45812.72472222222</v>
+        <v>45813.69489583333</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-06-04_172255</t>
+          <t>2025-06-05_163917</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>trade_commission_summary_2025-06-04</t>
+          <t>trade_commission_summary_2025-06-05</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.00193169</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45812.72472222222</v>
+        <v>45813.69489583333</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-06-04_172255</t>
+          <t>2025-06-05_163917</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>trade_commission_summary_ratio_2025-06-04</t>
+          <t>trade_commission_summary_ratio_2025-06-05</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1147,22 +1147,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45812.72472222222</v>
+        <v>45813.69489583333</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-06-04_172255</t>
+          <t>2025-06-05_163917</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>trade_realized_pnl_summary_2025-06-04</t>
+          <t>trade_realized_pnl_summary_2025-06-05</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1175,22 +1175,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45812.72472222222</v>
+        <v>45813.69489583333</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-06-04_172255</t>
+          <t>2025-06-05_163917</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>trade_realized_pnl_summary_ratio_2025-06-04</t>
+          <t>trade_realized_pnl_summary_ratio_2025-06-05</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1205,15 +1205,15 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45812.72472222222</v>
+        <v>45813.69489583333</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-06-04_172255</t>
+          <t>2025-06-05_163917</t>
         </is>
       </c>
     </row>
@@ -1225,25 +1225,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.047624%</t>
+          <t>0.085605%</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>调仓前回报率: (48.20831758 - 48.1853699) / 48.1853699 * 100</t>
+          <t>调仓前回报率: (50.1928053 - 50.14987465) / 50.14987465 * 100</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45812.72472222222</v>
+        <v>45813.69489583333</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-06-04_172255</t>
+          <t>2025-06-05_163917</t>
         </is>
       </c>
     </row>
@@ -1255,25 +1255,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.043206%</t>
+          <t>-0.072162%</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>调仓后回报率: (48.20618892 - 48.1853699) / 48.1853699 * 100</t>
+          <t>调仓后回报率: (50.11368536 - 50.14987465) / 50.14987465 * 100</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45812.72472222222</v>
+        <v>45813.69489583333</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-06-04_172255</t>
+          <t>2025-06-05_163917</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pos20250604_v3.csv</t>
+          <t>pos20250605_v3.csv</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1295,15 +1295,15 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45812.72996527778</v>
+        <v>45813.69842592593</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-06-04_172955</t>
+          <t>2025-06-05_164152</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.18231345</v>
+        <v>50.08337918</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1323,15 +1323,15 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45812.72996527778</v>
+        <v>45813.69842592593</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-06-04_172955</t>
+          <t>2025-06-05_164152</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.43293784</v>
+        <v>6.26059127</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1351,15 +1351,15 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45812.72996527778</v>
+        <v>45813.69842592593</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-06-04_172955</t>
+          <t>2025-06-05_164152</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>48.2009921</v>
+        <v>50.05335169</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1379,15 +1379,15 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45812.72996527778</v>
+        <v>45813.69842592593</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-06-04_172955</t>
+          <t>2025-06-05_164152</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.01867864999999824</v>
+        <v>0.03002749000000193</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1407,15 +1407,15 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45812.72996527778</v>
+        <v>45813.69842592593</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-06-04_172955</t>
+          <t>2025-06-05_164152</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-0.038767%</t>
+          <t>0.059955%</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1437,15 +1437,15 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45812.72996527778</v>
+        <v>45813.69842592593</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-06-04_172955</t>
+          <t>2025-06-05_164152</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5.45632882</v>
+        <v>5.78104481</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1465,15 +1465,15 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45812.72996527778</v>
+        <v>45813.69842592593</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-06-04_172955</t>
+          <t>2025-06-05_164152</t>
         </is>
       </c>
     </row>
@@ -1484,35 +1484,35 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105333</v>
+        <v>104550</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>当前btc_usdt_price:105333.0</t>
+          <t>当前btc_usdt_price:104550.0</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45812.72996527778</v>
+        <v>45813.69842592593</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-06-04_172955</t>
+          <t>2025-06-05_164152</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>trade_commission_summary_2025-06-04</t>
+          <t>trade_commission_summary_2025-06-05</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.05082</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1521,22 +1521,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45812.72996527778</v>
+        <v>45813.69842592593</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-06-04_172955</t>
+          <t>2025-06-05_164152</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>trade_commission_summary_ratio_2025-06-04</t>
+          <t>trade_commission_summary_ratio_2025-06-05</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1551,26 +1551,26 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45812.72996527778</v>
+        <v>45813.69842592593</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-06-04_172955</t>
+          <t>2025-06-05_164152</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>trade_realized_pnl_summary_2025-06-04</t>
+          <t>trade_realized_pnl_summary_2025-06-05</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-0.11485</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1579,22 +1579,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45812.72996527778</v>
+        <v>45813.69842592593</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-06-04_172955</t>
+          <t>2025-06-05_164152</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>trade_realized_pnl_summary_ratio_2025-06-04</t>
+          <t>trade_realized_pnl_summary_ratio_2025-06-05</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1609,15 +1609,15 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45812.72996527778</v>
+        <v>45813.69842592593</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-06-04_172955</t>
+          <t>2025-06-05_164152</t>
         </is>
       </c>
     </row>
@@ -1629,25 +1629,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-0.006343%</t>
+          <t>0.062331%</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>调仓前回报率: (48.18231345 - 48.1853699) / 48.1853699 * 100</t>
+          <t>调仓前回报率: (50.08337918 - 50.05218119) / 50.05218119 * 100</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45812.72996527778</v>
+        <v>45813.69842592593</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-06-04_172955</t>
+          <t>2025-06-05_164152</t>
         </is>
       </c>
     </row>
@@ -1659,429 +1659,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0.032421%</t>
+          <t>0.002339%</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>调仓后回报率: (48.2009921 - 48.1853699) / 48.1853699 * 100</t>
+          <t>调仓后回报率: (50.05335169 - 50.05218119) / 50.05218119 * 100</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45812.72996527778</v>
+        <v>45813.69842592593</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-06-04_172955</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>position_file</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>pos20250604_v3.csv</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>调仓文件</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>45812.74287037037</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2025-06-04_174840</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>before_trade_balance</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>48.29669157</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>调仓前账户总保证金余额(totalMarginBalance)</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>45812.74287037037</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2025-06-04_174840</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>before_available_balance</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>5.38197082</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>调仓前可用保证金余额(available_balance)</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>45812.74287037037</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2025-06-04_174840</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>after_trade_balance</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>48.27344268</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>调仓后账户总保证金余额(totalMarginBalance)</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>45812.74287037037</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2025-06-04_174840</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>balance_loss</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.02324888999999786</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>调仓前后账户余额变化</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>45812.74287037037</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2025-06-04_174840</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>balance_loss_rate</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>0.048138%</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>调仓前后账户余额变化率(%)</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>45812.74287037037</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2025-06-04_174840</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>after_available_balance</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>5.39812574</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>调仓后可用余额</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>45812.74287037037</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2025-06-04_174840</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>btc_usdt_price</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>105656.7</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>当前btc_usdt_price:105656.7</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>45812.74287037037</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2025-06-04_174840</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>trade_commission_summary_2025-06-04</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>买卖交易手续费总和</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>45812.74287037037</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2025-06-04_174840</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>trade_commission_summary_ratio_2025-06-04</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>0.000000%</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>买卖交易总手续费占比</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>45812.74287037037</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2025-06-04_174840</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>trade_realized_pnl_summary_2025-06-04</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>买卖交易已实现盈亏总和</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="n">
-        <v>45812.74287037037</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2025-06-04_174840</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>trade_realized_pnl_summary_ratio_2025-06-04</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>0.000000%</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>买卖交易总盈亏占比</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="E55" s="2" t="n">
-        <v>45812.74287037037</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2025-06-04_174840</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>pre_rebalance_return</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>0.198543%</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>调仓前回报率: (48.29669157 - 48.2009921) / 48.2009921 * 100</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="n">
-        <v>45812.74287037037</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2025-06-04_174840</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>post_rebalance_return</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>0.150309%</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>调仓后回报率: (48.27344268 - 48.2009921) / 48.2009921 * 100</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="n">
-        <v>45812.74287037037</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2025-06-04_174840</t>
+          <t>2025-06-05_164152</t>
         </is>
       </c>
     </row>
